--- a/dataset/original/cpi2019.xlsx
+++ b/dataset/original/cpi2019.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10111"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marmos91/Projects/Fra/correlation/dataset/original/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marmos91/Projects/Fra/politics-in-covid/dataset/original/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D47124A-5F48-154A-9BFC-FF959B7A81E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E2B78C-C8D4-7B4B-8528-AB0FA5F0A4CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="23060" windowHeight="13660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -248,9 +248,6 @@
     <t>FRA</t>
   </si>
   <si>
-    <t>United States of America</t>
-  </si>
-  <si>
     <t>USA</t>
   </si>
   <si>
@@ -341,9 +338,6 @@
     <t>SVN</t>
   </si>
   <si>
-    <t>Korea, South</t>
-  </si>
-  <si>
     <t>KOR</t>
   </si>
   <si>
@@ -377,9 +371,6 @@
     <t>CRI</t>
   </si>
   <si>
-    <t>Czech Republic</t>
-  </si>
-  <si>
     <t>CZE</t>
   </si>
   <si>
@@ -1197,13 +1188,22 @@
   </si>
   <si>
     <t>CPI</t>
+  </si>
+  <si>
+    <t>Czechia</t>
+  </si>
+  <si>
+    <t>South Korea</t>
+  </si>
+  <si>
+    <t>United States</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1343,11 +1343,13 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -1355,6 +1357,11 @@
       <color theme="1"/>
       <name val="Helvetica"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="Fira Code"/>
     </font>
   </fonts>
   <fills count="36">
@@ -1716,7 +1723,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1737,6 +1744,7 @@
     <xf numFmtId="1" fontId="19" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2063,8 +2071,8 @@
   </sheetPr>
   <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2104,7 +2112,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
@@ -3727,10 +3735,10 @@
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B25" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>52</v>
@@ -3795,10 +3803,10 @@
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B26" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>27</v>
@@ -3863,10 +3871,10 @@
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>52</v>
@@ -3931,13 +3939,13 @@
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="C28" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="D28" s="6">
         <v>66</v>
@@ -3999,10 +4007,10 @@
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>27</v>
@@ -4067,10 +4075,10 @@
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>52</v>
@@ -4135,10 +4143,10 @@
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>52</v>
@@ -4203,10 +4211,10 @@
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>23</v>
@@ -4271,10 +4279,10 @@
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>89</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>90</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>67</v>
@@ -4339,10 +4347,10 @@
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>23</v>
@@ -4407,13 +4415,13 @@
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>94</v>
-      </c>
       <c r="C35" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D35" s="6">
         <v>61</v>
@@ -4475,10 +4483,10 @@
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>27</v>
@@ -4543,10 +4551,10 @@
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>97</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>98</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>67</v>
@@ -4611,10 +4619,10 @@
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>99</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>100</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>23</v>
@@ -4679,10 +4687,10 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>101</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>102</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>23</v>
@@ -4747,10 +4755,10 @@
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>103</v>
+        <v>387</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>27</v>
@@ -4815,10 +4823,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>52</v>
@@ -4883,13 +4891,13 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D42" s="6">
         <v>58</v>
@@ -4951,10 +4959,10 @@
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>23</v>
@@ -5019,10 +5027,10 @@
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>23</v>
@@ -5087,10 +5095,10 @@
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>52</v>
@@ -5153,12 +5161,12 @@
         <v>63</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
-        <v>115</v>
+    <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>386</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>23</v>
@@ -5223,13 +5231,13 @@
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D47" s="6">
         <v>56</v>
@@ -5291,10 +5299,10 @@
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>23</v>
@@ -5359,10 +5367,10 @@
     </row>
     <row r="49" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>52</v>
@@ -5427,10 +5435,10 @@
     </row>
     <row r="50" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C50" s="1" t="s">
         <v>52</v>
@@ -5495,10 +5503,10 @@
     </row>
     <row r="51" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>23</v>
@@ -5563,10 +5571,10 @@
     </row>
     <row r="52" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>52</v>
@@ -5631,10 +5639,10 @@
     </row>
     <row r="53" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" s="1" t="s">
         <v>23</v>
@@ -5699,10 +5707,10 @@
     </row>
     <row r="54" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C54" s="1" t="s">
         <v>27</v>
@@ -5767,13 +5775,13 @@
     </row>
     <row r="55" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D55" s="6">
         <v>53</v>
@@ -5835,10 +5843,10 @@
     </row>
     <row r="56" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>67</v>
@@ -5903,13 +5911,13 @@
     </row>
     <row r="57" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D57" s="6">
         <v>52</v>
@@ -5971,13 +5979,13 @@
     </row>
     <row r="58" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D58" s="6">
         <v>52</v>
@@ -6039,10 +6047,10 @@
     </row>
     <row r="59" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>67</v>
@@ -6107,10 +6115,10 @@
     </row>
     <row r="60" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>23</v>
@@ -6175,10 +6183,10 @@
     </row>
     <row r="61" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C61" s="1" t="s">
         <v>52</v>
@@ -6243,10 +6251,10 @@
     </row>
     <row r="62" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C62" s="1" t="s">
         <v>23</v>
@@ -6311,10 +6319,10 @@
     </row>
     <row r="63" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="C63" s="1" t="s">
         <v>67</v>
@@ -6379,10 +6387,10 @@
     </row>
     <row r="64" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C64" s="1" t="s">
         <v>23</v>
@@ -6447,13 +6455,13 @@
     </row>
     <row r="65" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D65" s="6">
         <v>46</v>
@@ -6515,10 +6523,10 @@
     </row>
     <row r="66" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C66" s="1" t="s">
         <v>27</v>
@@ -6583,10 +6591,10 @@
     </row>
     <row r="67" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>52</v>
@@ -6651,13 +6659,13 @@
     </row>
     <row r="68" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D68" s="6">
         <v>45</v>
@@ -6719,13 +6727,13 @@
     </row>
     <row r="69" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D69" s="6">
         <v>45</v>
@@ -6787,13 +6795,13 @@
     </row>
     <row r="70" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D70" s="6">
         <v>45</v>
@@ -6855,10 +6863,10 @@
     </row>
     <row r="71" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="C71" s="1" t="s">
         <v>23</v>
@@ -6923,10 +6931,10 @@
     </row>
     <row r="72" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>23</v>
@@ -6991,13 +6999,13 @@
     </row>
     <row r="73" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D73" s="6">
         <v>44</v>
@@ -7059,10 +7067,10 @@
     </row>
     <row r="74" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C74" s="1" t="s">
         <v>52</v>
@@ -7127,10 +7135,10 @@
     </row>
     <row r="75" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>23</v>
@@ -7195,10 +7203,10 @@
     </row>
     <row r="76" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C76" s="1" t="s">
         <v>52</v>
@@ -7263,10 +7271,10 @@
     </row>
     <row r="77" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>67</v>
@@ -7331,13 +7339,13 @@
     </row>
     <row r="78" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D78" s="6">
         <v>42</v>
@@ -7399,10 +7407,10 @@
     </row>
     <row r="79" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C79" s="1" t="s">
         <v>67</v>
@@ -7467,10 +7475,10 @@
     </row>
     <row r="80" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>27</v>
@@ -7535,13 +7543,13 @@
     </row>
     <row r="81" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D81" s="6">
         <v>41</v>
@@ -7603,10 +7611,10 @@
     </row>
     <row r="82" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>27</v>
@@ -7671,13 +7679,13 @@
     </row>
     <row r="83" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D83" s="6">
         <v>41</v>
@@ -7739,10 +7747,10 @@
     </row>
     <row r="84" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C84" s="1" t="s">
         <v>27</v>
@@ -7807,10 +7815,10 @@
     </row>
     <row r="85" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C85" s="1" t="s">
         <v>67</v>
@@ -7875,13 +7883,13 @@
     </row>
     <row r="86" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D86" s="6">
         <v>40</v>
@@ -7943,10 +7951,10 @@
     </row>
     <row r="87" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="C87" s="1" t="s">
         <v>52</v>
@@ -8011,10 +8019,10 @@
     </row>
     <row r="88" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="C88" s="1" t="s">
         <v>27</v>
@@ -8079,10 +8087,10 @@
     </row>
     <row r="89" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="C89" s="1" t="s">
         <v>67</v>
@@ -8147,13 +8155,13 @@
     </row>
     <row r="90" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D90" s="6">
         <v>40</v>
@@ -8215,10 +8223,10 @@
     </row>
     <row r="91" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C91" s="1" t="s">
         <v>52</v>
@@ -8283,13 +8291,13 @@
     </row>
     <row r="92" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D92" s="6">
         <v>39</v>
@@ -8351,13 +8359,13 @@
     </row>
     <row r="93" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D93" s="6">
         <v>39</v>
@@ -8419,10 +8427,10 @@
     </row>
     <row r="94" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C94" s="1" t="s">
         <v>52</v>
@@ -8487,10 +8495,10 @@
     </row>
     <row r="95" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C95" s="1" t="s">
         <v>27</v>
@@ -8555,10 +8563,10 @@
     </row>
     <row r="96" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="C96" s="1" t="s">
         <v>27</v>
@@ -8623,10 +8631,10 @@
     </row>
     <row r="97" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>52</v>
@@ -8691,13 +8699,13 @@
     </row>
     <row r="98" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D98" s="6">
         <v>37</v>
@@ -8759,13 +8767,13 @@
     </row>
     <row r="99" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D99" s="6">
         <v>37</v>
@@ -8827,13 +8835,13 @@
     </row>
     <row r="100" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D100" s="6">
         <v>37</v>
@@ -8895,10 +8903,10 @@
     </row>
     <row r="101" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="C101" s="1" t="s">
         <v>27</v>
@@ -8963,13 +8971,13 @@
     </row>
     <row r="102" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D102" s="6">
         <v>36</v>
@@ -9031,13 +9039,13 @@
     </row>
     <row r="103" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D103" s="6">
         <v>36</v>
@@ -9099,10 +9107,10 @@
     </row>
     <row r="104" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C104" s="1" t="s">
         <v>52</v>
@@ -9167,10 +9175,10 @@
     </row>
     <row r="105" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C105" s="1" t="s">
         <v>52</v>
@@ -9235,10 +9243,10 @@
     </row>
     <row r="106" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="C106" s="1" t="s">
         <v>27</v>
@@ -9303,13 +9311,13 @@
     </row>
     <row r="107" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D107" s="6">
         <v>35</v>
@@ -9371,10 +9379,10 @@
     </row>
     <row r="108" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="C108" s="1" t="s">
         <v>67</v>
@@ -9439,10 +9447,10 @@
     </row>
     <row r="109" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C109" s="1" t="s">
         <v>52</v>
@@ -9507,13 +9515,13 @@
     </row>
     <row r="110" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D110" s="6">
         <v>35</v>
@@ -9575,10 +9583,10 @@
     </row>
     <row r="111" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C111" s="1" t="s">
         <v>67</v>
@@ -9643,13 +9651,13 @@
     </row>
     <row r="112" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D112" s="6">
         <v>35</v>
@@ -9711,10 +9719,10 @@
     </row>
     <row r="113" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="C113" s="1" t="s">
         <v>27</v>
@@ -9779,10 +9787,10 @@
     </row>
     <row r="114" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C114" s="1" t="s">
         <v>52</v>
@@ -9847,13 +9855,13 @@
     </row>
     <row r="115" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D115" s="6">
         <v>34</v>
@@ -9915,10 +9923,10 @@
     </row>
     <row r="116" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C116" s="1" t="s">
         <v>27</v>
@@ -9983,10 +9991,10 @@
     </row>
     <row r="117" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C117" s="1" t="s">
         <v>27</v>
@@ -10051,13 +10059,13 @@
     </row>
     <row r="118" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D118" s="6">
         <v>34</v>
@@ -10119,13 +10127,13 @@
     </row>
     <row r="119" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D119" s="6">
         <v>34</v>
@@ -10187,13 +10195,13 @@
     </row>
     <row r="120" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D120" s="6">
         <v>33</v>
@@ -10255,13 +10263,13 @@
     </row>
     <row r="121" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D121" s="6">
         <v>32</v>
@@ -10323,13 +10331,13 @@
     </row>
     <row r="122" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D122" s="6">
         <v>32</v>
@@ -10391,10 +10399,10 @@
     </row>
     <row r="123" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C123" s="1" t="s">
         <v>27</v>
@@ -10459,10 +10467,10 @@
     </row>
     <row r="124" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C124" s="1" t="s">
         <v>52</v>
@@ -10527,13 +10535,13 @@
     </row>
     <row r="125" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D125" s="6">
         <v>31</v>
@@ -10595,13 +10603,13 @@
     </row>
     <row r="126" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D126" s="6">
         <v>31</v>
@@ -10663,13 +10671,13 @@
     </row>
     <row r="127" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D127" s="6">
         <v>30</v>
@@ -10731,13 +10739,13 @@
     </row>
     <row r="128" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D128" s="6">
         <v>30</v>
@@ -10799,13 +10807,13 @@
     </row>
     <row r="129" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D129" s="6">
         <v>30</v>
@@ -10867,13 +10875,13 @@
     </row>
     <row r="130" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D130" s="6">
         <v>30</v>
@@ -10935,13 +10943,13 @@
     </row>
     <row r="131" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D131" s="6">
         <v>29</v>
@@ -11003,10 +11011,10 @@
     </row>
     <row r="132" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C132" s="1" t="s">
         <v>27</v>
@@ -11071,10 +11079,10 @@
     </row>
     <row r="133" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C133" s="1" t="s">
         <v>27</v>
@@ -11139,13 +11147,13 @@
     </row>
     <row r="134" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D134" s="6">
         <v>29</v>
@@ -11207,10 +11215,10 @@
     </row>
     <row r="135" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C135" s="1" t="s">
         <v>52</v>
@@ -11275,10 +11283,10 @@
     </row>
     <row r="136" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="C136" s="1" t="s">
         <v>27</v>
@@ -11343,13 +11351,13 @@
     </row>
     <row r="137" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D137" s="6">
         <v>29</v>
@@ -11411,10 +11419,10 @@
     </row>
     <row r="138" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C138" s="1" t="s">
         <v>52</v>
@@ -11479,13 +11487,13 @@
     </row>
     <row r="139" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D139" s="6">
         <v>28</v>
@@ -11547,10 +11555,10 @@
     </row>
     <row r="140" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C140" s="1" t="s">
         <v>67</v>
@@ -11615,13 +11623,13 @@
     </row>
     <row r="141" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D141" s="6">
         <v>28</v>
@@ -11683,13 +11691,13 @@
     </row>
     <row r="142" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D142" s="6">
         <v>28</v>
@@ -11751,10 +11759,10 @@
     </row>
     <row r="143" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C143" s="1" t="s">
         <v>27</v>
@@ -11819,10 +11827,10 @@
     </row>
     <row r="144" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C144" s="1" t="s">
         <v>52</v>
@@ -11887,13 +11895,13 @@
     </row>
     <row r="145" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D145" s="6">
         <v>28</v>
@@ -11955,13 +11963,13 @@
     </row>
     <row r="146" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D146" s="6">
         <v>28</v>
@@ -12023,13 +12031,13 @@
     </row>
     <row r="147" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D147" s="6">
         <v>26</v>
@@ -12091,10 +12099,10 @@
     </row>
     <row r="148" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C148" s="1" t="s">
         <v>27</v>
@@ -12159,10 +12167,10 @@
     </row>
     <row r="149" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C149" s="1" t="s">
         <v>52</v>
@@ -12227,10 +12235,10 @@
     </row>
     <row r="150" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C150" s="1" t="s">
         <v>52</v>
@@ -12295,10 +12303,10 @@
     </row>
     <row r="151" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C151" s="1" t="s">
         <v>67</v>
@@ -12363,13 +12371,13 @@
     </row>
     <row r="152" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D152" s="6">
         <v>26</v>
@@ -12431,13 +12439,13 @@
     </row>
     <row r="153" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D153" s="6">
         <v>26</v>
@@ -12499,13 +12507,13 @@
     </row>
     <row r="154" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D154" s="6">
         <v>25</v>
@@ -12567,13 +12575,13 @@
     </row>
     <row r="155" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D155" s="6">
         <v>25</v>
@@ -12635,13 +12643,13 @@
     </row>
     <row r="156" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D156" s="6">
         <v>25</v>
@@ -12703,13 +12711,13 @@
     </row>
     <row r="157" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D157" s="6">
         <v>25</v>
@@ -12771,13 +12779,13 @@
     </row>
     <row r="158" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D158" s="6">
         <v>25</v>
@@ -12839,13 +12847,13 @@
     </row>
     <row r="159" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D159" s="6">
         <v>24</v>
@@ -12907,13 +12915,13 @@
     </row>
     <row r="160" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D160" s="6">
         <v>24</v>
@@ -12975,13 +12983,13 @@
     </row>
     <row r="161" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D161" s="6">
         <v>23</v>
@@ -13043,10 +13051,10 @@
     </row>
     <row r="162" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="C162" s="1" t="s">
         <v>52</v>
@@ -13111,10 +13119,10 @@
     </row>
     <row r="163" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="C163" s="1" t="s">
         <v>27</v>
@@ -13179,13 +13187,13 @@
     </row>
     <row r="164" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D164" s="6">
         <v>20</v>
@@ -13247,10 +13255,10 @@
     </row>
     <row r="165" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C165" s="1" t="s">
         <v>67</v>
@@ -13315,13 +13323,13 @@
     </row>
     <row r="166" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D166" s="6">
         <v>19</v>
@@ -13383,13 +13391,13 @@
     </row>
     <row r="167" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D167" s="6">
         <v>19</v>
@@ -13451,13 +13459,13 @@
     </row>
     <row r="168" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D168" s="6">
         <v>19</v>
@@ -13519,13 +13527,13 @@
     </row>
     <row r="169" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D169" s="6">
         <v>18</v>
@@ -13587,13 +13595,13 @@
     </row>
     <row r="170" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D170" s="6">
         <v>18</v>
@@ -13655,10 +13663,10 @@
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="C171" s="1" t="s">
         <v>52</v>
@@ -13723,10 +13731,10 @@
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C172" s="1" t="s">
         <v>67</v>
@@ -13791,10 +13799,10 @@
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C173" s="1" t="s">
         <v>27</v>
@@ -13859,10 +13867,10 @@
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C174" s="1" t="s">
         <v>27</v>
@@ -13927,13 +13935,13 @@
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D175" s="6">
         <v>16</v>
@@ -13995,13 +14003,13 @@
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D176" s="6">
         <v>16</v>
@@ -14063,10 +14071,10 @@
     </row>
     <row r="177" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C177" s="1" t="s">
         <v>52</v>
@@ -14131,10 +14139,10 @@
     </row>
     <row r="178" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C178" s="1" t="s">
         <v>67</v>
@@ -14199,10 +14207,10 @@
     </row>
     <row r="179" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="C179" s="1" t="s">
         <v>67</v>
@@ -14267,13 +14275,13 @@
     </row>
     <row r="180" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D180" s="6">
         <v>12</v>
@@ -14335,13 +14343,13 @@
     </row>
     <row r="181" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D181" s="6">
         <v>9</v>
@@ -14408,18 +14416,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14537,18 +14545,18 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B0B9B35A-371C-4175-A3AB-CB4D24D4810A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8EED4B79-3E06-4152-BE96-5D1BC3C53503}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
